--- a/medicine/Maladies infectieuses/Pierre_Adolphe_Adrien_Doyon/Pierre_Adolphe_Adrien_Doyon.xlsx
+++ b/medicine/Maladies infectieuses/Pierre_Adolphe_Adrien_Doyon/Pierre_Adolphe_Adrien_Doyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Adolphe Adrien Doyon,né le 1er novembre 1827 à Grenoble et mort le 21 septembre 1907 à Uriage-les-Bains, est un dermatologue français membre de l'Académie nationale de médecine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adrien Doyon, fit des études de médecine à Lyon et fut Interne des hôpitaux de Lyon en 1848. Il eut comme maîtres, les professeurs Joseph Rollet et Charles-Paul Diday. Il devint docteur en médecine le 7 juillet 1854. Il fut rattaché à l'hôpital de l'Antiquaille situé sur la colline de Fourvière à Lyon.
 En 1858, il s'installa à Uriage-les-Bains, près de Grenoble, où il participa au développement du centre de la cure thermale de la ville.
@@ -547,7 +561,9 @@
           <t>Portraits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Léon Bonnat, Portrait du docteur Adrien Doyon, 1887, huile sur toile. Coll. musée de Grenoble (inv. MG 1594).</t>
         </is>
